--- a/compTemps.xlsx
+++ b/compTemps.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utbm-my.sharepoint.com/personal/victor_kretz_utbm_fr/Documents/Documents/Cours/Branche/BR 02/IT45/TSP_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="11_F25DC773A252ABDACC104895C19E7EF25ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83AE33B4-8288-440C-98F1-AEC8145EA256}"/>
+  <xr:revisionPtr revIDLastSave="775" documentId="11_F25DC773A252ABDACC104895C19E7EF25ADE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173A59F7-F8A8-438C-8F8A-BF2E6151C539}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>taille</t>
   </si>
@@ -50,17 +72,77 @@
     <t>LittleO3</t>
   </si>
   <si>
-    <t>Tabou+2OPT</t>
+    <t>Little+O3</t>
+  </si>
+  <si>
+    <t>1e6 generations</t>
   </si>
   <si>
     <t>Tabou+SWAP</t>
+  </si>
+  <si>
+    <t>Taobu+2OPT</t>
+  </si>
+  <si>
+    <t>Genetic_C1X_Mconsecutif</t>
+  </si>
+  <si>
+    <t>Genetic_C1X_MrandomSwap</t>
+  </si>
+  <si>
+    <t>Genetic_C1X_Minverse</t>
+  </si>
+  <si>
+    <t>Genetic_C2X_MrandomSwap</t>
+  </si>
+  <si>
+    <t>Genetic_C2X_Minverse</t>
+  </si>
+  <si>
+    <t>ClosestCity</t>
+  </si>
+  <si>
+    <t>Valeurs</t>
+  </si>
+  <si>
+    <t>1e4 iterations</t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Optimal ?</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Résultat cumulé</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,14 +168,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,14 +237,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> en fonction </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="fr-FR" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>du nombre de ville</a:t>
+              <a:t> en fonction du nombre de ville</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -234,10 +317,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -255,28 +338,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -339,10 +410,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -360,28 +431,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -389,13 +448,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27258</c:v>
+                  <c:v>29854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -447,10 +506,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -468,28 +527,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -500,10 +547,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8176</c:v>
+                  <c:v>7341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,6 +559,102 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-546F-4153-AE66-A564E7213E83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Little+O3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1678-4F76-982C-0BBDC7991813}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -848,7 +991,2081 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> d'exécution par algorithme génétique en fonction du nombre de ville</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_C1X_Mconsecutif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99E7-4B4F-9CE0-8C34DC8B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_C1X_MrandomSwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99E7-4B4F-9CE0-8C34DC8B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_C1X_Minverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99E7-4B4F-9CE0-8C34DC8B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_C2X_MrandomSwap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-99E7-4B4F-9CE0-8C34DC8B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Genetic_C2X_Minverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-99E7-4B4F-9CE0-8C34DC8B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547644368"/>
+        <c:axId val="547645072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547644368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de villes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547645072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547645072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temps d'exécution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547644368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>% d'éloignement de la meilleure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> solution trouvée</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>en fonction du nombre de villes</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ClosestCity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$32:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$32:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16153028692879914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21619008150297003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34659090909090912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26179289607216688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60216299729625333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F63A-4E4E-8E35-62E99885F718}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="267665384"/>
+        <c:axId val="267669960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="267665384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de villes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267669960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267669960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>% d'éloignement</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267665384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps d'exécution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> par algorithme tabou en fonction du nombre de ville</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tabou+SWAP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D7E-44F8-BE05-AC94470FCD5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Taobu+2OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D7E-44F8-BE05-AC94470FCD5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="490730000"/>
+        <c:axId val="490732816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="490730000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de villes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490732816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="490732816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps d'exécution (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="490730000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1404,20 +3621,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1437,6 +5202,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3294</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18814</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95BD8F7-F385-7EF1-9A95-77BEB5FE3CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>978370</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>72437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329258</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215A81EE-8BF5-FB1E-E58A-68B81D93E0BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>602074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>159926</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>150517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA01996F-B743-61A6-EA2C-6D6DDB4072D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1708,24 +5581,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1739,13 +5615,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -1758,8 +5631,11 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1772,8 +5648,11 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1781,13 +5660,16 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1795,52 +5677,711 @@
         <v>1824</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25</v>
       </c>
       <c r="C6">
-        <v>27258</v>
+        <v>29854</v>
       </c>
       <c r="D6">
-        <v>8176</v>
+        <v>7341</v>
+      </c>
+      <c r="E6">
+        <v>7143</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>52</v>
       </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>280</v>
+      </c>
+      <c r="B20">
+        <v>537</v>
+      </c>
+      <c r="C20">
+        <v>578</v>
+      </c>
+      <c r="D20">
+        <v>155</v>
+      </c>
+      <c r="E20">
+        <v>155</v>
+      </c>
+      <c r="F20">
+        <v>165</v>
+      </c>
+      <c r="G20">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>134</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23:I23">B15:I15</f>
+        <v>Tabou+SWAP</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Taobu+2OPT</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Genetic_C1X_Mconsecutif</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Genetic_C1X_MrandomSwap</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Genetic_C1X_Minverse</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Genetic_C2X_MrandomSwap</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Genetic_C2X_Minverse</v>
+      </c>
+      <c r="I23" t="str">
+        <v>ClosestCity</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>2823</v>
+      </c>
+      <c r="C24">
+        <v>2823</v>
+      </c>
+      <c r="D24">
+        <v>2823</v>
+      </c>
+      <c r="E24">
+        <v>2823</v>
+      </c>
+      <c r="F24">
+        <v>2823</v>
+      </c>
+      <c r="G24">
+        <v>2823</v>
+      </c>
+      <c r="H24">
+        <v>3270</v>
+      </c>
+      <c r="I24">
+        <v>3279</v>
+      </c>
+      <c r="J24">
+        <f>MIN(B24:I24)</f>
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>7817</v>
+      </c>
+      <c r="C25">
+        <v>7239</v>
+      </c>
+      <c r="D25">
+        <v>7850</v>
+      </c>
+      <c r="E25">
+        <v>8532</v>
+      </c>
+      <c r="F25">
+        <v>7651</v>
+      </c>
+      <c r="G25">
+        <v>9032</v>
+      </c>
+      <c r="H25">
+        <v>7657</v>
+      </c>
+      <c r="I25">
+        <v>8804</v>
+      </c>
+      <c r="J25">
+        <f>MIN(B25:I25)</f>
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>76</v>
+      </c>
+      <c r="B26">
+        <v>546</v>
+      </c>
+      <c r="C26">
+        <v>528</v>
+      </c>
+      <c r="D26">
+        <v>699</v>
+      </c>
+      <c r="E26">
+        <v>665</v>
+      </c>
+      <c r="F26">
+        <v>559</v>
+      </c>
+      <c r="G26">
+        <v>773</v>
+      </c>
+      <c r="H26">
+        <v>559</v>
+      </c>
+      <c r="I26">
+        <v>711</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:J28" si="0">MIN(B26:I26)</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>23472</v>
+      </c>
+      <c r="C27">
+        <v>21284</v>
+      </c>
+      <c r="D27">
+        <v>33400</v>
+      </c>
+      <c r="E27">
+        <v>44325</v>
+      </c>
+      <c r="F27">
+        <v>22836</v>
+      </c>
+      <c r="G27">
+        <v>44073</v>
+      </c>
+      <c r="H27">
+        <v>22850</v>
+      </c>
+      <c r="I27">
+        <v>26856</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>21284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>280</v>
+      </c>
+      <c r="B28">
+        <v>2947</v>
+      </c>
+      <c r="C28">
+        <v>2589</v>
+      </c>
+      <c r="D28">
+        <v>7768</v>
+      </c>
+      <c r="E28">
+        <v>15075</v>
+      </c>
+      <c r="F28">
+        <v>9884</v>
+      </c>
+      <c r="G28">
+        <v>14259</v>
+      </c>
+      <c r="H28">
+        <v>7476</v>
+      </c>
+      <c r="I28">
+        <v>4148</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="str" cm="1">
+        <f t="array" ref="B31:I31">B15:I15</f>
+        <v>Tabou+SWAP</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Taobu+2OPT</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Genetic_C1X_Mconsecutif</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Genetic_C1X_MrandomSwap</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Genetic_C1X_Minverse</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Genetic_C2X_MrandomSwap</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Genetic_C2X_Minverse</v>
+      </c>
+      <c r="I31" t="str">
+        <v>ClosestCity</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4">
+        <f>(B24-$J24)/$J24</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:I32" si="1">(C24-$J24)/$J24</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15834218916046758</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16153028692879914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>50</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" ref="B33:B36" si="2">(B25-$J25)/$J25</f>
+        <v>7.9845282497582534E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:I33" si="3">(C25-$J25)/$J25</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="3"/>
+        <v>8.4403923193811306E-2</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.17861583091587235</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6913938389280286E-2</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.24768614449509602</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="3"/>
+        <v>5.774278215223097E-2</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="3"/>
+        <v>0.21619008150297003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>76</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" ref="C34:I34" si="4">(C26-$J26)/$J26</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.32386363636363635</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.25946969696969696</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8712121212121215E-2</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.46401515151515149</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="4"/>
+        <v>5.8712121212121215E-2</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="4"/>
+        <v>0.34659090909090912</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10280022552151852</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" ref="C35:I35" si="5">(C27-$J27)/$J27</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="5"/>
+        <v>0.56925389964292428</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0825502725051681</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="5"/>
+        <v>7.291862431873708E-2</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="5"/>
+        <v>1.0707103927833115</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="5"/>
+        <v>7.3576395414395784E-2</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="5"/>
+        <v>0.26179289607216688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>280</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13827732715334107</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:H36" si="6">(C28-$J28)/$J28</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="6"/>
+        <v>2.000386249517188</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="6"/>
+        <v>4.8227114716106607</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="6"/>
+        <v>2.8176902278872151</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5075318655851682</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="6"/>
+        <v>1.8876013904982618</v>
+      </c>
+      <c r="I36" s="4">
+        <f>(I28-$J28)/$J28</f>
+        <v>0.60216299729625333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
